--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreea.ghetu\Documents\UiPath\CSharpChanges\StudioTemplates\REFramework\C#\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fast\oyti\rpa\PhonePricing_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96902286-4E3C-425E-A0BF-F83C72A8C5F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D0000-135F-47AB-A0F8-AA53B1755BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -85,13 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -161,13 +154,43 @@
   </si>
   <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>Q.PhonePricing</t>
+  </si>
+  <si>
+    <t>PhonePricing</t>
+  </si>
+  <si>
+    <t>ReportFolderPath</t>
+  </si>
+  <si>
+    <t>Data\Output</t>
+  </si>
+  <si>
+    <t>DelayMs</t>
+  </si>
+  <si>
+    <t>FailOnMissingAsset</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>ShopsJson</t>
+  </si>
+  <si>
+    <t>PhonesJson</t>
+  </si>
+  <si>
+    <t>MaxRetriesShop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +214,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,24 +247,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,9 +277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -391,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" activeCellId="1" sqref="B6 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -591,35 +623,46 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -631,10 +674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -684,27 +727,25 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
@@ -725,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -747,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -758,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -769,56 +810,67 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="45">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -831,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -851,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -879,11 +931,61 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
